--- a/Assets/Editor/Dialogue/比尔.xlsx
+++ b/Assets/Editor/Dialogue/比尔.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity Project\Adventure\Assets\Editor\Dialogue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C124B-24C2-4D3E-AC2B-C004EC3A3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580ACB8-CABE-4990-A45D-1BAC9587CD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,26 @@
   </si>
   <si>
     <t>OptionEndIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextPhase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇士，感谢你为村子做出的贡献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,179 +489,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
         <v>-1</v>
       </c>
     </row>
@@ -649,7 +744,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E1:F2 E4 A1:B2 B4 B3 E3" numberStoredAsText="1"/>
+    <ignoredError sqref="F1:G2 F4 B1:C2 C4 C3 F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>